--- a/classfiers/mega/MLP/smote/mega-mlp-smote-results.xlsx
+++ b/classfiers/mega/MLP/smote/mega-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7974137931034483</v>
+        <v>0.8185840707964602</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8872901678657074</v>
+        <v>0.8980582524271844</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9931044558071584</v>
+        <v>0.9832061510001155</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.923469387755102</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9783783783783784</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9501312335958005</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9869685902118335</v>
+        <v>0.9997976644698809</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9893048128342246</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9919999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999132847728062</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9973045822102425</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999415631848063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0.9945945945945946</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999590942293645</v>
+        <v>0.9994768962510898</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9409565176574738</v>
+        <v>0.9583741733818687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9924324324324324</v>
+        <v>0.9935425748328974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.964240973872277</v>
+        <v>0.9742293236842421</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9959211102994887</v>
+        <v>0.9964787992987784</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/MLP/smote/mega-mlp-smote-results.xlsx
+++ b/classfiers/mega/MLP/smote/mega-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8185840707964602</v>
+        <v>0.8195121951219512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8980582524271844</v>
+        <v>0.8983957219251336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9832061510001155</v>
+        <v>0.9917019712194952</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9939759036144579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.9763313609467456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997976644698809</v>
+        <v>0.9989496166100628</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9919999999999999</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999132847728062</v>
+        <v>0.9991596932880501</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9946236559139785</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9973045822102425</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9941176470588236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9970501474926253</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994768962510898</v>
+        <v>0.9994397955253668</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9583741733818687</v>
+        <v>0.9591682079825758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9935425748328974</v>
+        <v>0.9928994082840237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9742293236842421</v>
+        <v>0.9743341877522612</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9964787992987784</v>
+        <v>0.997850215328595</v>
       </c>
     </row>
   </sheetData>
